--- a/project_tracker_workbook.xlsx
+++ b/project_tracker_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\COD Last 4\capstone project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A1FDED-BA6F-4FB0-B833-FB8546522A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE791C-0546-498B-B966-1B29913880BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{C7E3B102-2D79-404D-96C8-06FB473DFC22}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>Team Members</t>
   </si>
@@ -426,7 +426,16 @@
     <t xml:space="preserve">Created storage space on sever for apps data. Then created app through TrueNas. After that setup tailscale so I could do a reverse proxy and allowsaccesiblity from anywhere. So basicallly ip setup. After that I Setup the app side and web side of the sever. </t>
   </si>
   <si>
-    <t>This part was pretty easy. Just configure the storage in the NAS with TrueNas. First step was to allocate storage to mirror the data between my 2 3tb drives. Then I set up security for the server and data on it with enceryption ect. Then I made a storage pool and this is accessable on the home network as a storage device.</t>
+    <t>This part was pretty easy. I Just configure the storage in the NAS with TrueNas. First step was to allocate storage to mirror the data between my 2 3tb drives. Then I set up security for the server and data on it with enceryption ect. Then I made a storage pool and this is accessable on the home network as a storage device.</t>
+  </si>
+  <si>
+    <t>https://github.com/CalebOkrzesik/capstoneprojects/blob/main/NasServerSetup.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/CalebOkrzesik/capstoneprojects/blob/main/ImmichPhotosApp.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/CalebOkrzesik/capstoneprojects/blob/main/JellyFinMoviesApp.docx</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2457,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2765,7 @@
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2814,9 @@
       <c r="E2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2823,7 +2834,9 @@
       <c r="E3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2841,7 +2854,9 @@
       <c r="E4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
